--- a/Explicit results.xlsx
+++ b/Explicit results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Computer Science\Year 3\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30003DC3-0DED-435D-BD73-5D054763116E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965871F8-374F-495C-A96E-26AC6E4466E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{CC4A6745-9E80-4F12-8878-B62090E3680E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Fitness</t>
   </si>
@@ -75,7 +75,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,14 +98,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B01491-05E3-4897-94E2-3C9DF696C2DD}">
-  <dimension ref="C5:F18"/>
+  <dimension ref="C5:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -431,7 +446,7 @@
     <col min="4" max="4" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -441,8 +456,17 @@
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="J5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C6" s="1">
         <v>87.9</v>
       </c>
@@ -453,8 +477,18 @@
         <f>C6*D6</f>
         <v>1406.4</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="J6" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1">
+        <f>J6*K6</f>
+        <v>1387.2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C7" s="1">
         <v>90.3</v>
       </c>
@@ -465,8 +499,18 @@
         <f t="shared" ref="E7:E17" si="0">C7*D7</f>
         <v>812.69999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="J7" s="1">
+        <v>87</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L18" si="1">J7*K7</f>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C8" s="1">
         <v>88.8</v>
       </c>
@@ -477,8 +521,18 @@
         <f t="shared" si="0"/>
         <v>3196.7999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="J8" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
         <v>89.1</v>
       </c>
@@ -489,8 +543,18 @@
         <f t="shared" si="0"/>
         <v>2138.3999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="J9" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>788.4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <v>86.7</v>
       </c>
@@ -501,8 +565,18 @@
         <f t="shared" si="0"/>
         <v>867</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="J10" s="1">
+        <v>87.9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <v>88.5</v>
       </c>
@@ -513,8 +587,18 @@
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="J11" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>617.4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <v>90</v>
       </c>
@@ -525,8 +609,18 @@
         <f t="shared" si="0"/>
         <v>1620</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="J12" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <v>89.7</v>
       </c>
@@ -537,8 +631,18 @@
         <f t="shared" si="0"/>
         <v>1435.2</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="J13" s="1">
+        <v>88.8</v>
+      </c>
+      <c r="K13" s="1">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>2308.7999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <v>89.4</v>
       </c>
@@ -549,8 +653,18 @@
         <f t="shared" si="0"/>
         <v>1788</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="J14" s="1">
+        <v>89.1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>22</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>1960.1999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
         <v>87.6</v>
       </c>
@@ -561,8 +675,18 @@
         <f t="shared" si="0"/>
         <v>1051.1999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="J15" s="1">
+        <v>89.4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>625.80000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
         <v>88.2</v>
       </c>
@@ -573,8 +697,18 @@
         <f t="shared" si="0"/>
         <v>1058.4000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="J16" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="K16" s="1">
+        <v>44</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>3946.8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
         <v>90.6</v>
       </c>
@@ -588,8 +722,21 @@
       <c r="F17" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="J17" s="1">
+        <v>90</v>
+      </c>
+      <c r="K17" s="1">
+        <v>20</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
@@ -600,6 +747,40 @@
         <f>E18/SUM(D6:D17)</f>
         <v>88.9</v>
       </c>
+      <c r="J18" s="1">
+        <v>90.3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
+        <v>903</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="J19" s="4">
+        <v>90.6</v>
+      </c>
+      <c r="K19" s="4">
+        <v>7</v>
+      </c>
+      <c r="L19" s="1">
+        <f>J19*K19</f>
+        <v>634.19999999999993</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="L20" s="1">
+        <f>SUM(L6:L19)</f>
+        <v>18221.099999999999</v>
+      </c>
+      <c r="M20" s="3">
+        <f>L20/SUM(K6:K19)</f>
+        <v>88.883414634146334</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
